--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8936B7-FCEF-46AF-AF0E-623833D54BB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8760FF1-4F06-42FF-BAA5-CF816A55A5D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,8 @@
           </rPr>
           <t xml:space="preserve">
 1. 消失
-2. 置灰</t>
+2. 置灰
+3. 消耗道具解锁</t>
         </r>
       </text>
     </comment>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>sheet名</t>
   </si>
@@ -243,6 +244,62 @@
   </si>
   <si>
     <t>通过第三章第2关后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valw</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost[1].valv</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗权</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁导弹炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁激光炮</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第一章后可解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第四章后可解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -871,10 +928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -883,9 +940,13 @@
     <col min="2" max="4" width="13.5" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="45.5" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>34</v>
       </c>
@@ -904,8 +965,17 @@
       <c r="F1" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -924,8 +994,17 @@
       <c r="F2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -944,8 +1023,17 @@
       <c r="F3" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>100</v>
       </c>
@@ -962,8 +1050,11 @@
         <v>18</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>10001</v>
       </c>
@@ -980,8 +1071,11 @@
         <v>19</v>
       </c>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1000101</v>
       </c>
@@ -998,8 +1092,11 @@
         <v>24</v>
       </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1000102</v>
       </c>
@@ -1018,8 +1115,11 @@
       <c r="F7" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>10002</v>
       </c>
@@ -1038,8 +1138,11 @@
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>101</v>
       </c>
@@ -1058,8 +1161,11 @@
       <c r="F9" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>10101</v>
       </c>
@@ -1078,8 +1184,11 @@
       <c r="F10" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>1010101</v>
       </c>
@@ -1096,8 +1205,11 @@
         <v>29</v>
       </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>1010102</v>
       </c>
@@ -1116,8 +1228,11 @@
       <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10102</v>
       </c>
@@ -1136,8 +1251,11 @@
       <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>1010201</v>
       </c>
@@ -1154,8 +1272,11 @@
         <v>30</v>
       </c>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>1010202</v>
       </c>
@@ -1174,8 +1295,11 @@
       <c r="F15" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>10103</v>
       </c>
@@ -1194,8 +1318,11 @@
       <c r="F16" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>102</v>
       </c>
@@ -1213,6 +1340,67 @@
       </c>
       <c r="F17" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="3">
+        <v>40</v>
+      </c>
+      <c r="D19" s="3">
+        <v>12</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8760FF1-4F06-42FF-BAA5-CF816A55A5D5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743235CE-A7E2-4729-93ED-B288CD44CB83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>sheet名</t>
   </si>
@@ -300,6 +300,34 @@
   </si>
   <si>
     <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡扫荡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过第3章第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5关后解锁</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第1章解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1403,6 +1431,52 @@
         <v>200</v>
       </c>
     </row>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>200</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3">
+        <v>35</v>
+      </c>
+      <c r="D20" s="3">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>300</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743235CE-A7E2-4729-93ED-B288CD44CB83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89AB3DC-EA8E-430F-955C-FFF71048918C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{8AF4AAF7-0E2E-45F3-ABEA-6D6CD7FC384E}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8AF4AAF7-0E2E-45F3-ABEA-6D6CD7FC384E}">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
   <si>
     <t>sheet名</t>
   </si>
@@ -143,10 +143,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>晶片系统</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -208,10 +204,6 @@
   </si>
   <si>
     <t>unlockInfo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:e&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -328,6 +320,46 @@
   </si>
   <si>
     <t>通关第1章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>行ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>unlock.json</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能解锁的服务端表</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -858,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -898,33 +930,45 @@
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
@@ -956,526 +1000,590 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="45.5" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="45.5" customWidth="1"/>
+    <col min="8" max="8" width="10.875" customWidth="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1"/>
+    <col min="10" max="10" width="12.375" customWidth="1"/>
+    <col min="11" max="11" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
         <v>100</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="3">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
         <v>10001</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="3">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
         <v>1000101</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="D6" s="3">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3">
         <v>1000102</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>30</v>
       </c>
-      <c r="D7" s="3">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
         <v>10002</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>40</v>
       </c>
-      <c r="D8" s="3">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="3">
+        <v>12</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3">
         <v>101</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>10</v>
       </c>
-      <c r="D9" s="3">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
         <v>10101</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>20</v>
       </c>
-      <c r="D10" s="3">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3">
         <v>1010101</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="D11" s="3">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="E11" s="3">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3">
         <v>1010102</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>35</v>
       </c>
-      <c r="D12" s="3">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3">
+        <v>12</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3">
         <v>10102</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>25</v>
       </c>
-      <c r="D13" s="3">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="3">
+        <v>12</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3">
         <v>1010201</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="D14" s="3">
-        <v>12</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3">
+        <v>12</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3">
         <v>1010202</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
-      <c r="C15" s="3">
+      <c r="D15" s="3">
         <v>40</v>
       </c>
-      <c r="D15" s="3">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="3"/>
+      <c r="E15" s="3">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
         <v>10103</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>30</v>
       </c>
-      <c r="D16" s="3">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="3">
+        <v>12</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3">
         <v>102</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="D17" s="3">
         <v>32</v>
       </c>
-      <c r="D17" s="3">
-        <v>12</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3">
         <v>11</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="D18" s="3">
-        <v>12</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3">
+        <v>12</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>40</v>
+      </c>
+      <c r="E19" s="3">
+        <v>12</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3">
+        <v>200</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>35</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="3">
-        <v>1</v>
-      </c>
-      <c r="I18" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>12</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3</v>
-      </c>
-      <c r="C19" s="3">
-        <v>40</v>
-      </c>
-      <c r="D19" s="3">
-        <v>12</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>200</v>
-      </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
-        <v>35</v>
-      </c>
-      <c r="D20" s="3">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
         <v>300</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>2</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>10</v>
       </c>
-      <c r="D21" s="3">
-        <v>12</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>63</v>
+      <c r="E21" s="3">
+        <v>12</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89AB3DC-EA8E-430F-955C-FFF71048918C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE15F0F-A27B-4C05-B0FA-2D9BCCFC603E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>sheet名</t>
   </si>
@@ -224,10 +224,6 @@
   </si>
   <si>
     <t>通过第二章后解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第三章第5关后解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -890,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -940,7 +936,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
@@ -955,16 +951,16 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1002,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1021,7 +1017,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>33</v>
@@ -1042,50 +1038,50 @@
         <v>36</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1106,13 +1102,13 @@
         <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1326,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3">
         <v>12</v>
@@ -1361,7 +1357,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1463,7 +1459,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1486,13 +1482,13 @@
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -1518,13 +1514,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -1550,10 +1546,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1576,10 +1572,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE15F0F-A27B-4C05-B0FA-2D9BCCFC603E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC24FB3-6CB4-4F3A-92E9-108E61C3EB13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,7 @@
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="解锁表" sheetId="26" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -227,14 +227,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通过第二章第5关后解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第三章第2关后解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cost[1].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -295,30 +287,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>通过第3章第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5关后解锁</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通关第1章解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -356,6 +328,22 @@
   </si>
   <si>
     <t>功能解锁的服务端表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第三章第5关后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第四章第5关后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第四章第2关后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第二章解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -936,7 +924,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
@@ -951,16 +939,16 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -999,7 +987,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1005,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>33</v>
@@ -1038,50 +1026,50 @@
         <v>36</v>
       </c>
       <c r="H1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
         <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1102,13 +1090,13 @@
         <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1220,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3">
         <v>12</v>
@@ -1229,7 +1217,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1331,7 +1319,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1348,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3">
         <v>12</v>
@@ -1357,7 +1345,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1459,7 +1447,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1482,13 +1470,13 @@
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -1514,13 +1502,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -1546,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1566,16 +1554,16 @@
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21" s="3">
         <v>12</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC24FB3-6CB4-4F3A-92E9-108E61C3EB13}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5773C256-5780-4B9C-921B-916FB27D5231}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>sheet名</t>
   </si>
@@ -344,6 +344,14 @@
   </si>
   <si>
     <t>通关第二章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排行榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第三章解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -984,10 +992,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1569,6 +1577,32 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>19</v>
+      </c>
+      <c r="B22" s="3">
+        <v>400</v>
+      </c>
+      <c r="C22" s="3">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3">
+        <v>30</v>
+      </c>
+      <c r="E22" s="3">
+        <v>12</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5773C256-5780-4B9C-921B-916FB27D5231}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B69BA-49BF-4C22-A05D-7613EE08FEA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,7 +995,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780B69BA-49BF-4C22-A05D-7613EE08FEA5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88C4C0-F7BA-4ED5-8B5D-807376256604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>sheet名</t>
   </si>
@@ -343,15 +343,35 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通关第二章解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>排行榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过第三章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第一章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>晶片抽奖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第三章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通关第四章解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -992,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A4" sqref="A4:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1562,7 +1582,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21" s="3">
         <v>12</v>
@@ -1571,7 +1591,7 @@
         <v>57</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1582,26 +1602,104 @@
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>400</v>
+        <v>300101</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E22" s="3">
         <v>12</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3">
+        <v>300102</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>30</v>
+      </c>
+      <c r="E23" s="3">
+        <v>12</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>21</v>
+      </c>
+      <c r="B24" s="3">
+        <v>300103</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>40</v>
+      </c>
+      <c r="E24" s="3">
+        <v>12</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3">
+        <v>400</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
+      <c r="D25" s="3">
+        <v>30</v>
+      </c>
+      <c r="E25" s="3">
+        <v>12</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88C4C0-F7BA-4ED5-8B5D-807376256604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33444589-01DD-4F5D-97D6-606C8896066D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>sheet名</t>
   </si>
@@ -372,6 +372,14 @@
   </si>
   <si>
     <t>通关第四章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信朋友圈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第四章第4关解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1012,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1701,6 +1709,32 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>23</v>
+      </c>
+      <c r="B26" s="3">
+        <v>500</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33444589-01DD-4F5D-97D6-606C8896066D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E1EF6-031C-4135-90AD-A07880805638}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
   <si>
     <t>sheet名</t>
   </si>
@@ -215,18 +215,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通过第四章后解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第一章后解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过第二章后解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>cost[1].id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -347,14 +335,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通过第三章解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第一章解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>基础商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -367,19 +347,67 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通关第三章解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通关第四章解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>微信朋友圈</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>通过第四章第4关解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+  </si>
+  <si>
+    <t>日常本</t>
+  </si>
+  <si>
+    <t>通天塔</t>
+  </si>
+  <si>
+    <t>世界BOSS</t>
+  </si>
+  <si>
+    <t>通过第二章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第三章第5关解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第三章第6关解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第五章第2关解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通第三章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通第一章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通第四章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通第四章后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通第一章后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通第二章后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>打通第三章后解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -960,7 +988,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>35</v>
@@ -975,16 +1003,16 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" s="3" t="b">
         <v>1</v>
@@ -1020,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1037,11 +1065,12 @@
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="12.375" customWidth="1"/>
     <col min="11" max="11" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>33</v>
@@ -1062,50 +1091,50 @@
         <v>36</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -1126,13 +1155,13 @@
         <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
@@ -1227,7 +1256,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1253,7 +1282,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1279,7 +1308,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1305,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1355,7 +1384,7 @@
         <v>27</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1381,7 +1410,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1431,7 +1460,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1483,7 +1512,7 @@
         <v>21</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1506,13 +1535,13 @@
         <v>12</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I18" s="3">
         <v>1</v>
@@ -1538,13 +1567,13 @@
         <v>12</v>
       </c>
       <c r="F19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="I19" s="3">
         <v>1</v>
@@ -1570,10 +1599,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -1596,10 +1625,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1622,10 +1651,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1648,10 +1677,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1674,10 +1703,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1700,10 +1729,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1726,14 +1755,118 @@
         <v>12</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="3">
+        <v>601</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>25</v>
+      </c>
+      <c r="B28" s="3">
+        <v>602</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3">
+        <v>25</v>
+      </c>
+      <c r="E28" s="3">
+        <v>12</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>26</v>
+      </c>
+      <c r="B29" s="3">
+        <v>603</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3">
+        <v>42</v>
+      </c>
+      <c r="E29" s="3">
+        <v>12</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>27</v>
+      </c>
+      <c r="B30" s="3">
+        <v>604</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>26</v>
+      </c>
+      <c r="E30" s="3">
+        <v>12</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B44E1EF6-031C-4135-90AD-A07880805638}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF7A462-1556-4C2E-BEC1-6D541E65E34D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>sheet名</t>
   </si>
@@ -1048,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1868,6 +1868,32 @@
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
+    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>28</v>
+      </c>
+      <c r="B31" s="3">
+        <v>701</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>25</v>
+      </c>
+      <c r="E31" s="3">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF7A462-1556-4C2E-BEC1-6D541E65E34D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD65F5E7-2CB4-4845-8D31-D1D0C669C4BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
   <si>
     <t>sheet名</t>
   </si>
@@ -408,6 +408,10 @@
   </si>
   <si>
     <t>打通第三章后解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天塔商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1050,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1879,16 +1883,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E31" s="3">
         <v>12</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>76</v>
+      <c r="F31" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD65F5E7-2CB4-4845-8D31-D1D0C669C4BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B99D9A-F0A9-42D9-83F4-00EFFFF87536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>sheet名</t>
   </si>
@@ -412,6 +412,22 @@
   </si>
   <si>
     <t>通天塔商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第八章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键合成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>一键精炼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第六章解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1052,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1898,6 +1914,58 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>29</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1010302</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <v>80</v>
+      </c>
+      <c r="E32" s="3">
+        <v>12</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1020101</v>
+      </c>
+      <c r="C33" s="3">
+        <v>2</v>
+      </c>
+      <c r="D33" s="3">
+        <v>60</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/unlock.解锁.xlsx
+++ b/Excel/unlock.解锁.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B99D9A-F0A9-42D9-83F4-00EFFFF87536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B143A7-3659-4EFB-9C6B-0CB1D5B07EE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="95">
   <si>
     <t>sheet名</t>
   </si>
@@ -371,10 +371,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通过第三章第5关解锁</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>通过第三章第6关解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -428,6 +424,14 @@
   </si>
   <si>
     <t>通过第六章解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第五章第5关解锁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过第四章第2关解锁</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1070,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C795BAE6-EF1B-45D1-B714-6F8CB290C166}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1280,7 @@
         <v>24</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1328,7 +1332,7 @@
         <v>22</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1354,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1430,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1480,7 +1484,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1648,7 +1652,7 @@
         <v>54</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -1674,7 +1678,7 @@
         <v>69</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -1700,7 +1704,7 @@
         <v>70</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1726,7 +1730,7 @@
         <v>71</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1752,7 +1756,7 @@
         <v>68</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1821,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E28" s="3">
         <v>12</v>
@@ -1830,7 +1834,7 @@
         <v>76</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1856,7 +1860,7 @@
         <v>75</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -1873,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="3">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E30" s="3">
         <v>12</v>
@@ -1882,7 +1886,7 @@
         <v>77</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -1905,10 +1909,10 @@
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -1931,10 +1935,10 @@
         <v>12</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -1957,10 +1961,10 @@
         <v>12</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
